--- a/config/Hmw_Tables/physique-chimie.xlsx
+++ b/config/Hmw_Tables/physique-chimie.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="42">
-  <si>
-    <t>Autocorrection Act</t>
-  </si>
-  <si>
-    <t>Activités Numérisation</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="47">
+  <si>
+    <t>Activité 1 Du Chapitre En Cours</t>
+  </si>
+  <si>
+    <t>Image Numérique</t>
   </si>
   <si>
     <t>Élèves</t>
@@ -52,6 +52,12 @@
     <t>Emeline</t>
   </si>
   <si>
+    <t>le 27/05 à 20:44</t>
+  </si>
+  <si>
+    <t>le 27/05 à 20:45</t>
+  </si>
+  <si>
     <t>Emile</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>Lea</t>
   </si>
   <si>
+    <t>le 27/05 à 11:01</t>
+  </si>
+  <si>
     <t>Leo</t>
   </si>
   <si>
@@ -97,6 +106,9 @@
     <t>Marie</t>
   </si>
   <si>
+    <t>le 26/05 à 15:42</t>
+  </si>
+  <si>
     <t>Mateo</t>
   </si>
   <si>
@@ -125,6 +137,9 @@
   </si>
   <si>
     <t>Theob</t>
+  </si>
+  <si>
+    <t>le 26/05 à 14:32</t>
   </si>
   <si>
     <t>Vivien</t>
@@ -163,7 +178,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +206,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA19E9E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDFB3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -234,6 +255,9 @@
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -632,16 +656,16 @@
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>4</v>
@@ -652,7 +676,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>4</v>
@@ -663,7 +687,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>4</v>
@@ -674,7 +698,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>4</v>
@@ -685,7 +709,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>4</v>
@@ -696,7 +720,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -707,7 +731,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>4</v>
@@ -718,7 +742,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>4</v>
@@ -729,7 +753,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>4</v>
@@ -740,18 +764,18 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
+      <c r="C19" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>4</v>
@@ -762,7 +786,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>4</v>
@@ -773,7 +797,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>4</v>
@@ -784,7 +808,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>4</v>
@@ -795,18 +819,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>4</v>
+      <c r="C24" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>4</v>
@@ -817,7 +841,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>4</v>
@@ -828,7 +852,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>4</v>
@@ -839,7 +863,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>4</v>
@@ -850,7 +874,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>4</v>
@@ -861,7 +885,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>4</v>
@@ -872,7 +896,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>4</v>
@@ -883,7 +907,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>4</v>
@@ -894,7 +918,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>4</v>
@@ -905,18 +929,18 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>4</v>
+      <c r="C34" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>4</v>
@@ -927,7 +951,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>4</v>
@@ -938,7 +962,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>4</v>
@@ -949,7 +973,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>4</v>
@@ -960,7 +984,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>4</v>
